--- a/11/1/1/Ventas comercio 1993 a 2021 - Trimestral.xlsx
+++ b/11/1/1/Ventas comercio 1993 a 2021 - Trimestral.xlsx
@@ -5173,10 +5173,10 @@
         <v>66.34</v>
       </c>
       <c r="E112">
-        <v>109.93</v>
+        <v>109.89</v>
       </c>
       <c r="F112">
-        <v>146.85</v>
+        <v>146.83</v>
       </c>
       <c r="G112">
         <v>101.06</v>
@@ -5185,10 +5185,10 @@
         <v>192.65</v>
       </c>
       <c r="I112">
-        <v>182.13</v>
+        <v>182.11</v>
       </c>
       <c r="J112">
-        <v>101.18</v>
+        <v>101.14</v>
       </c>
       <c r="K112">
         <v>94.79000000000001</v>
@@ -5206,13 +5206,13 @@
         <v>98.83</v>
       </c>
       <c r="P112">
-        <v>93.33</v>
+        <v>93.19</v>
       </c>
       <c r="Q112">
-        <v>121.95</v>
+        <v>121.9</v>
       </c>
       <c r="R112">
-        <v>99.11</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="S112">
         <v>87.68000000000001</v>
@@ -5332,49 +5332,49 @@
         <v>73.66</v>
       </c>
       <c r="E115">
-        <v>130.14</v>
+        <v>129.95</v>
       </c>
       <c r="F115">
-        <v>187.87</v>
+        <v>187.78</v>
       </c>
       <c r="G115">
-        <v>149.9</v>
+        <v>149.97</v>
       </c>
       <c r="H115">
-        <v>140.02</v>
+        <v>140.07</v>
       </c>
       <c r="I115">
-        <v>222.08</v>
+        <v>221.84</v>
       </c>
       <c r="J115">
-        <v>116.46</v>
+        <v>116.25</v>
       </c>
       <c r="K115">
-        <v>108.04</v>
+        <v>107.81</v>
       </c>
       <c r="L115">
         <v>70.54000000000001</v>
       </c>
       <c r="M115">
-        <v>121.47</v>
+        <v>121.23</v>
       </c>
       <c r="N115">
-        <v>98.61</v>
+        <v>98.62</v>
       </c>
       <c r="O115">
-        <v>114.7</v>
+        <v>114.68</v>
       </c>
       <c r="P115">
-        <v>131.57</v>
+        <v>131.5</v>
       </c>
       <c r="Q115">
-        <v>145.2</v>
+        <v>145</v>
       </c>
       <c r="R115">
-        <v>107.12</v>
+        <v>106.55</v>
       </c>
       <c r="S115">
-        <v>106.67</v>
+        <v>106.71</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/1/Ventas comercio 1993 a 2021 - Trimestral.xlsx
+++ b/11/1/1/Ventas comercio 1993 a 2021 - Trimestral.xlsx
@@ -5173,10 +5173,10 @@
         <v>66.34</v>
       </c>
       <c r="E112">
-        <v>109.89</v>
+        <v>109.92</v>
       </c>
       <c r="F112">
-        <v>146.83</v>
+        <v>146.8</v>
       </c>
       <c r="G112">
         <v>101.06</v>
@@ -5185,13 +5185,13 @@
         <v>192.65</v>
       </c>
       <c r="I112">
-        <v>182.11</v>
+        <v>182.04</v>
       </c>
       <c r="J112">
-        <v>101.14</v>
+        <v>101.19</v>
       </c>
       <c r="K112">
-        <v>94.79000000000001</v>
+        <v>95.36</v>
       </c>
       <c r="L112">
         <v>70.56</v>
@@ -5200,19 +5200,19 @@
         <v>113.26</v>
       </c>
       <c r="N112">
-        <v>88.62</v>
+        <v>88.41</v>
       </c>
       <c r="O112">
         <v>98.83</v>
       </c>
       <c r="P112">
-        <v>93.19</v>
+        <v>93.31</v>
       </c>
       <c r="Q112">
         <v>121.9</v>
       </c>
       <c r="R112">
-        <v>99.04000000000001</v>
+        <v>98.91</v>
       </c>
       <c r="S112">
         <v>87.68000000000001</v>
@@ -5329,7 +5329,7 @@
         <v>139</v>
       </c>
       <c r="B115">
-        <v>73.66</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="E115">
         <v>129.95</v>

--- a/11/1/1/Ventas comercio 1993 a 2021 - Trimestral.xlsx
+++ b/11/1/1/Ventas comercio 1993 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
   <si>
     <t>Serie</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ115"/>
+  <dimension ref="A1:AJ116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5377,6 +5380,14 @@
         <v>106.71</v>
       </c>
     </row>
+    <row r="116" spans="1:19">
+      <c r="A116" t="s">
+        <v>140</v>
+      </c>
+      <c r="B116">
+        <v>126.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11/1/1/Ventas comercio 1993 a 2021 - Trimestral.xlsx
+++ b/11/1/1/Ventas comercio 1993 a 2021 - Trimestral.xlsx
@@ -5176,10 +5176,10 @@
         <v>66.34</v>
       </c>
       <c r="E112">
-        <v>109.92</v>
+        <v>109.99</v>
       </c>
       <c r="F112">
-        <v>146.8</v>
+        <v>146.81</v>
       </c>
       <c r="G112">
         <v>101.06</v>
@@ -5188,13 +5188,13 @@
         <v>192.65</v>
       </c>
       <c r="I112">
-        <v>182.04</v>
+        <v>182.06</v>
       </c>
       <c r="J112">
-        <v>101.19</v>
+        <v>101.27</v>
       </c>
       <c r="K112">
-        <v>95.36</v>
+        <v>95.81</v>
       </c>
       <c r="L112">
         <v>70.56</v>
@@ -5212,13 +5212,13 @@
         <v>93.31</v>
       </c>
       <c r="Q112">
-        <v>121.9</v>
+        <v>121.96</v>
       </c>
       <c r="R112">
-        <v>98.91</v>
+        <v>99.03</v>
       </c>
       <c r="S112">
-        <v>87.68000000000001</v>
+        <v>88.22</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -5386,6 +5386,51 @@
       </c>
       <c r="B116">
         <v>126.44</v>
+      </c>
+      <c r="E116">
+        <v>146.2</v>
+      </c>
+      <c r="F116">
+        <v>185.83</v>
+      </c>
+      <c r="G116">
+        <v>160.42</v>
+      </c>
+      <c r="H116">
+        <v>190.12</v>
+      </c>
+      <c r="I116">
+        <v>206.63</v>
+      </c>
+      <c r="J116">
+        <v>136.81</v>
+      </c>
+      <c r="K116">
+        <v>125.07</v>
+      </c>
+      <c r="L116">
+        <v>87.73999999999999</v>
+      </c>
+      <c r="M116">
+        <v>131.23</v>
+      </c>
+      <c r="N116">
+        <v>116.85</v>
+      </c>
+      <c r="O116">
+        <v>122.55</v>
+      </c>
+      <c r="P116">
+        <v>196.3</v>
+      </c>
+      <c r="Q116">
+        <v>146.73</v>
+      </c>
+      <c r="R116">
+        <v>129.11</v>
+      </c>
+      <c r="S116">
+        <v>110.39</v>
       </c>
     </row>
   </sheetData>
